--- a/results/I3_N5_M3_T15_C200_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.67265209572375</v>
+        <v>90.83265209505899</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03299999237060547</v>
+        <v>0.0280001163482666</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.580000000664761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.26</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.29375422704619</v>
+        <v>11.29375422704617</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.3470000000049</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>152.6190000000313</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>43.74299999999934</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000004</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>200.1580000000556</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>107.791</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.1580000000666</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>43.74299999999897</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1580000000664761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,17 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
